--- a/data/output/output.xlsx
+++ b/data/output/output.xlsx
@@ -467,25 +467,17 @@
           <t>Cash and cash equivalents</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10,123</t>
+          <t>10123</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7,079</t>
+          <t>7079</t>
         </is>
       </c>
     </row>
@@ -497,14 +489,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16,023</t>
+          <t>16023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12,188</t>
+          <t>12188</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -512,20 +504,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accounts receivable, net of allowance
-of $85 at July 29, 2023 and $83 at July 30, 2022</t>
+          <t>Accounts receivable net of allowance
+of 85 at July 29 2023 and 83 at July 30 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5,854</t>
+          <t>5854</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6,622</t>
+          <t>6622</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -538,14 +530,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3,644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2,568</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -553,19 +545,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Financing receivables, net</t>
+          <t>Financing receivables net</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3,352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3,905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -578,14 +570,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4,352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -598,14 +590,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43,348</t>
+          <t>43348</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36,717</t>
+          <t>36717</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -613,19 +605,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Property and equipment, net</t>
+          <t>Property and equipment net</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2,085</t>
+          <t>2085</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,997</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -633,19 +625,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Financing receivables, net</t>
+          <t>Financing receivables net</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3,483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4,009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -658,14 +650,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38,535</t>
+          <t>38535</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38,304</t>
+          <t>38304</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -673,19 +665,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Purchased intangible assets, net</t>
+          <t>Purchased intangible assets net</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,818</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2,569</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -698,14 +690,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6,576</t>
+          <t>6576</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4,449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -718,14 +710,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6,007</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5,957</t>
+          <t>5957</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -736,25 +728,17 @@
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>101,852</t>
+          <t>101852</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>94,002</t>
+          <t>94002</t>
         </is>
       </c>
     </row>
@@ -788,25 +772,17 @@
           <t>Short-term debt</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1,733</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,099</t>
+          <t>1099</t>
         </is>
       </c>
     </row>
@@ -818,14 +794,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2,313</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>2281</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -838,7 +814,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4,235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -858,14 +834,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3,984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3,316</t>
+          <t>3316</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -878,14 +854,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13,908</t>
+          <t>13908</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12,784</t>
+          <t>12784</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -898,14 +874,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5,136</t>
+          <t>5136</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5,199</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -918,14 +894,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31,309</t>
+          <t>31309</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25,640</t>
+          <t>25640</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -938,14 +914,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6,658</t>
+          <t>6658</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8,416</t>
+          <t>8416</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -958,14 +934,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5,756</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7,725</t>
+          <t>7725</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -978,14 +954,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11,642</t>
+          <t>11642</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10,480</t>
+          <t>10480</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -998,14 +974,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1,968</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1018,14 +994,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>57,499</t>
+          <t>57499</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>54,229</t>
+          <t>54229</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1069,7 +1045,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Preferred stock, $0.001 par value: 5 shares authorized; none issued and outstanding</t>
+          <t>Preferred stock 0.001 par value: 5 shares authorized; none issued and outstanding</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1089,20 +1065,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Common stock and additional paid-in capital, $0.001 par value: 20,000 shares authorized; 4,066 and 4,110 shares issued and
-outstanding at July 29, 2023 and July 30, 2022, respectively</t>
+          <t>Common stock and additional paid-in capital 0.001 par value: 20000 shares authorized; 4066 and 4110 shares issued and
+outstanding at July 29 2023 and July 30 2022 respectively</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>44,289</t>
+          <t>44289</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>42,714</t>
+          <t>42714</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1115,14 +1091,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1,639</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>(1,319)</t>
+          <t>(1319)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1135,14 +1111,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(1,575)</t>
+          <t>(1575)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>(1,622)</t>
+          <t>(1622)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1155,14 +1131,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>44,353</t>
+          <t>44353</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>39,773</t>
+          <t>39773</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1173,25 +1149,17 @@
           <t>TOTAL LIABILITIES AND EQUITY</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>101,852</t>
+          <t>101852</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>94,002</t>
+          <t>94002</t>
         </is>
       </c>
     </row>
@@ -1235,36 +1203,24 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>43,142</t>
+          <t>43142</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>38,018</t>
+          <t>38018</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>36,014</t>
+          <t>36014</t>
         </is>
       </c>
     </row>
@@ -1276,21 +1232,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13,856</t>
+          <t>13856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13,539</t>
+          <t>13539</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13,804</t>
+          <t>13804</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -1303,21 +1259,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>56,998</t>
+          <t>56998</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>51,557</t>
+          <t>51557</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>49,818</t>
+          <t>49818</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1345,21 +1301,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16,590</t>
+          <t>16590</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14,814</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13,300</t>
+          <t>13300</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1372,21 +1328,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4,655</t>
+          <t>4655</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,495</t>
+          <t>4495</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4,624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1399,21 +1355,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21,245</t>
+          <t>21245</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19,309</t>
+          <t>19309</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17,924</t>
+          <t>17924</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1426,21 +1382,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>35,753</t>
+          <t>35753</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32,248</t>
+          <t>32248</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31,894</t>
+          <t>31894</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1468,21 +1424,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7,551</t>
+          <t>7551</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6,774</t>
+          <t>6774</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6,549</t>
+          <t>6549</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1495,21 +1451,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9,880</t>
+          <t>9880</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9,085</t>
+          <t>9085</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9,259</t>
+          <t>9259</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1522,21 +1478,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2,478</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2,101</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2,152</t>
+          <t>2152</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1603,21 +1559,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20,722</t>
+          <t>20722</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18,279</t>
+          <t>18279</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>19,061</t>
+          <t>19061</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1630,21 +1586,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15,031</t>
+          <t>15031</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13,969</t>
+          <t>13969</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12,833</t>
+          <t>12833</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1706,7 +1662,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Other income (loss), net</t>
+          <t>Other income (loss) net</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1733,7 +1689,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Interest and other income (loss), net</t>
+          <t>Interest and other income (loss) net</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1765,21 +1721,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15,318</t>
+          <t>15318</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14,477</t>
+          <t>14477</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13,262</t>
+          <t>13262</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1792,21 +1748,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,705</t>
+          <t>2705</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2,665</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2,671</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1817,36 +1773,24 @@
           <t>NET INCOME</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12,613</t>
+          <t>12613</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11,812</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10,591</t>
+          <t>10591</t>
         </is>
       </c>
     </row>
@@ -1882,33 +1826,21 @@
           <t>Basic</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>2.83</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -1921,33 +1853,21 @@
           <t>Diluted</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>2.82</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>2.50</t>
@@ -1977,21 +1897,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4,093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4,170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4,222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2004,21 +1924,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4,105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4,192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4,236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -2099,8 +2019,8 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Change in net unrealized gains and losses, net of tax benefit (expense) of $35, $174, and $46 for
-fiscal 2023, 2022, and 2021, respectively</t>
+          <t>Change in net unrealized gains and losses net of tax benefit (expense) of 35 174 and 46 for
+fiscal 2023 2022 and 2021 respectively</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2127,8 +2047,8 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Net (gains) losses reclassified into earnings, net of tax expense (benefit) of $(4), $5, and $15 for
-fiscal 2023, 2022, and 2021, respectively</t>
+          <t>Net (gains) losses reclassified into earnings net of tax expense (benefit) of (4) 5 and 15 for
+fiscal 2023 2022 and 2021 respectively</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2193,8 +2113,8 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Change in unrealized gains and losses, net of tax benefit (expense) of $(7), $(20), and $(4) for fiscal
-2023, 2022, and 2021, respectively</t>
+          <t>Change in unrealized gains and losses net of tax benefit (expense) of (7) (20) and (4) for fiscal
+2023 2022 and 2021 respectively</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2221,8 +2141,8 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Net (gains) losses reclassified into earnings, net of tax (benefit) expense of $15, $7, and $3 for
-fiscal 2023, 2022, and 2021, respectively</t>
+          <t>Net (gains) losses reclassified into earnings net of tax (benefit) expense of 15 7 and 3 for
+fiscal 2023 2022 and 2021 respectively</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2272,8 +2192,8 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Net change in cumulative translation adjustment and actuarial gains and losses, net of tax benefit
-(expense) of $19, $(44), and $(2) for fiscal 2023, 2022, and 2021, respectively</t>
+          <t>Net change in cumulative translation adjustment and actuarial gains and losses net of tax benefit
+(expense) of 19 (44) and (2) for fiscal 2023 2022 and 2021 respectively</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2312,7 +2232,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(1,205)</t>
+          <t>(1205)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -2330,36 +2250,24 @@
           <t>Comprehensive income</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12,660</t>
+          <t>12660</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10,607</t>
+          <t>10607</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10,693</t>
+          <t>10693</t>
         </is>
       </c>
     </row>
@@ -2403,36 +2311,24 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12,613</t>
+          <t>12613</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11,812</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10,591</t>
+          <t>10591</t>
         </is>
       </c>
     </row>
@@ -2454,26 +2350,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Depreciation, amortization, and other</t>
+          <t>Depreciation amortization and other</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,726</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,957</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1,862</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -2486,21 +2382,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2,353</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,886</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1,761</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -2540,7 +2436,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(2,085)</t>
+          <t>(2085)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -2562,7 +2458,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(Gains) losses on divestitures, investments and other, net</t>
+          <t>(Gains) losses on divestitures investments and other net</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2589,7 +2485,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Change in operating assets and liabilities, net of effects of acquisitions and divestitures:</t>
+          <t>Change in operating assets and liabilities net of effects of acquisitions and divestitures:</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -2616,7 +2512,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(1,009)</t>
+          <t>(1009)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -2636,14 +2532,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(1,069)</t>
+          <t>(1069)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(1,030)</t>
+          <t>(1030)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -2663,21 +2559,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,102</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,241</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1,577</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2697,7 +2593,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(1,615)</t>
+          <t>(1615)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -2739,12 +2635,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Income taxes, net</t>
+          <t>Income taxes net</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,218</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2798,21 +2694,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2,326</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1,328</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1,560</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2852,21 +2748,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19,886</t>
+          <t>19886</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13,226</t>
+          <t>13226</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15,454</t>
+          <t>15454</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2894,21 +2790,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(10,871)</t>
+          <t>(10871)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(6,070)</t>
+          <t>(6070)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(9,328)</t>
+          <t>(9328)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2921,21 +2817,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1,054</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2,660</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3,373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2948,21 +2844,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5,978</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5,686</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8,409</t>
+          <t>8409</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2970,7 +2866,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Acquisitions, net of cash and cash equivalents acquired and divestitures</t>
+          <t>Acquisitions net of cash and cash equivalents acquired and divestitures</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2989,7 +2885,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(7,038)</t>
+          <t>(7038)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3137,21 +3033,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(5,107)</t>
+          <t>(5107)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1,553</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(5,285)</t>
+          <t>(5285)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3206,21 +3102,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(4,293)</t>
+          <t>(4293)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>(7,689)</t>
+          <t>(7689)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(2,877)</t>
+          <t>(2877)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3255,7 +3151,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Short-term borrowings, original maturities of 90 days or less, net</t>
+          <t>Short-term borrowings original maturities of 90 days or less net</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3294,7 +3190,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1,049</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3321,14 +3217,14 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>(3,550)</t>
+          <t>(3550)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(3,000)</t>
+          <t>(3000)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -3341,21 +3237,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(6,302)</t>
+          <t>(6302)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>(6,224)</t>
+          <t>(6224)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(6,163)</t>
+          <t>(6163)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -3395,21 +3291,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(11,626)</t>
+          <t>(11626)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>(15,962)</t>
+          <t>(15962)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(12,097)</t>
+          <t>(12097)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -3417,7 +3313,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Effect of foreign currency exchange rate changes on cash, cash equivalents, restricted cash and restricted cash equivalents</t>
+          <t>Effect of foreign currency exchange rate changes on cash cash equivalents restricted cash and restricted cash equivalents</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3444,26 +3340,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash, cash equivalents, restricted cash and restricted cash equivalents</t>
+          <t>Net increase (decrease) in cash cash equivalents restricted cash and restricted cash equivalents</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3,048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>(1,363)</t>
+          <t>(1363)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(1,870)</t>
+          <t>(1870)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3471,26 +3367,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cash, cash equivalents, restricted cash and restricted cash equivalents, beginning of fiscal year</t>
+          <t>Cash cash equivalents restricted cash and restricted cash equivalents beginning of fiscal year</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8,579</t>
+          <t>8579</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>9,942</t>
+          <t>9942</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11,812</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -3498,39 +3394,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cash, cash equivalents, restricted cash and restricted cash equivalents, end of fiscal year</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+          <t>Cash cash equivalents restricted cash and restricted cash equivalents end of fiscal year</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11,627</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8,579</t>
+          <t>8579</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9,942</t>
+          <t>9942</t>
         </is>
       </c>
     </row>
@@ -3566,33 +3450,21 @@
           <t>Cash paid for interest</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>376</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
           <t>355</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>438</t>
@@ -3602,39 +3474,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cash paid for income taxes, net</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+          <t>Cash paid for income taxes net</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3,571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3,663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3,604</t>
+          <t>3604</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3586,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10,591</t>
+          <t>10591</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -3736,7 +3596,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10,591</t>
+          <t>10591</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -3822,7 +3682,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(2,277)</t>
+          <t>(2277)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -3832,7 +3692,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>(2,902)</t>
+          <t>(2902)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -3873,7 +3733,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cash dividends declared ($1.46 per common share)</t>
+          <t>Cash dividends declared (1.46 per common share)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -3883,7 +3743,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(6,166)</t>
+          <t>(6166)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -3893,7 +3753,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>(6,166)</t>
+          <t>(6166)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -3936,7 +3796,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1,761</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -3949,7 +3809,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1,761</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -3989,56 +3849,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BALANCE AT JULY 31, 2021</t>
+          <t>BALANCE AT JULY 31 2021</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4,217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>42,346</t>
+          <t>42346</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>(654)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>(417)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>41,275</t>
+          <t>41275</t>
         </is>
       </c>
     </row>
@@ -4055,7 +3899,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11,812</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -4065,7 +3909,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11,812</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -4086,14 +3930,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>(1,205)</t>
+          <t>(1205)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>(1,205)</t>
+          <t>(1205)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -4144,14 +3988,14 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(1,490)</t>
+          <t>(1490)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(6,244)</t>
+          <t>(6244)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -4161,7 +4005,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>(7,734)</t>
+          <t>(7734)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -4202,7 +4046,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cash dividends declared ($1.50 per common share)</t>
+          <t>Cash dividends declared (1.50 per common share)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -4212,7 +4056,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(6,224)</t>
+          <t>(6224)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -4222,7 +4066,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>(6,224)</t>
+          <t>(6224)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -4237,7 +4081,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1,886</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4250,7 +4094,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1,886</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -4294,56 +4138,40 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BALANCE AT JULY 30, 2022</t>
+          <t>BALANCE AT JULY 30 2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4,110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>42,714</t>
+          <t>42714</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(1,319)</t>
+          <t>(1319)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>(1,622)</t>
+          <t>(1622)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>39,773</t>
+          <t>39773</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4188,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12,613</t>
+          <t>12613</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -4370,7 +4198,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12,613</t>
+          <t>12613</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -4456,7 +4284,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(3,341)</t>
+          <t>(3341)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -4466,7 +4294,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>(4,271)</t>
+          <t>(4271)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -4507,7 +4335,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cash dividends declared ($1.54 per common share)</t>
+          <t>Cash dividends declared (1.54 per common share)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -4517,7 +4345,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(6,302)</t>
+          <t>(6302)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -4527,7 +4355,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>(6,302)</t>
+          <t>(6302)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -4542,7 +4370,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2,353</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -4555,7 +4383,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2,353</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -4595,56 +4423,40 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BALANCE AT JULY 29, 2023</t>
+          <t>BALANCE AT JULY 29 2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4,066</t>
+          <t>4066</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>44,289</t>
+          <t>44289</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1,639</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>(1,575)</t>
+          <t>(1575)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>44,353</t>
+          <t>44353</t>
         </is>
       </c>
     </row>
